--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CB33B-669E-47A2-95A0-4D1E55E9CD82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1BF342-E559-42BC-AA94-C94AAAFE5D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -1797,7 +1797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1857,11 +1857,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1886,6 +1895,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2167,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,7 +2190,7 @@
     <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2191,8 +2203,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2206,7 +2220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2220,7 +2234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2234,7 +2248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2248,7 +2262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2262,7 +2276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2276,7 +2290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2290,7 +2304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2304,7 +2318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2318,7 +2332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2332,7 +2346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2346,7 +2360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2360,7 +2374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2374,7 +2388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2388,7 +2402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4860,14 +4874,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1741,12 +1741,16 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nüfus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2187,7 +2191,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2203,6 +2207,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>573</v>
+      </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
@@ -2219,6 +2226,9 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="n">
+        <v>1500000.0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2244,9 +2254,6 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -2331,6 +2338,9 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="n">
+        <v>250000.0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -2400,6 +2410,9 @@
       </c>
       <c r="D15" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="E15" t="n">
+        <v>54000.0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
